--- a/Data Files/Request Hadir.xlsx
+++ b/Data Files/Request Hadir.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Riyan\Katalon Studio\Request Hadir Auto\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\900666\git\Katalon-Request-Hadir-Auto\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02EC4951-475F-400E-B7A3-00EFD4D3B416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226A93C4-CBAB-4D0E-AF98-2EE2B5A3DBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{E15BDBE8-02C5-4268-9734-CC755962024E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E15BDBE8-02C5-4268-9734-CC755962024E}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Title</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>Bgft278</t>
+  </si>
+  <si>
+    <t>2025/0/16</t>
   </si>
 </sst>
 </file>
@@ -130,9 +133,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,13 +454,13 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
@@ -515,8 +519,8 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2">
-        <v>16</v>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E2" s="1">
         <v>0.35416666666666669</v>
@@ -545,6 +549,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Data Files/Request Hadir.xlsx
+++ b/Data Files/Request Hadir.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\900666\git\Katalon-Request-Hadir-Auto\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226A93C4-CBAB-4D0E-AF98-2EE2B5A3DBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EB0C66-309E-4D8E-A873-7EBAC41A5F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E15BDBE8-02C5-4268-9734-CC755962024E}"/>
   </bookViews>
@@ -454,7 +454,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data Files/Request Hadir.xlsx
+++ b/Data Files/Request Hadir.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\900666\git\Katalon-Request-Hadir-Auto\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EB0C66-309E-4D8E-A873-7EBAC41A5F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0CFBA0-BFB0-4345-8BD8-3FB88EB43007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E15BDBE8-02C5-4268-9734-CC755962024E}"/>
+    <workbookView xWindow="7200" yWindow="4245" windowWidth="21600" windowHeight="11235" xr2:uid="{E15BDBE8-02C5-4268-9734-CC755962024E}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>Title</t>
   </si>
@@ -98,6 +98,15 @@
   </si>
   <si>
     <t>2025/0/16</t>
+  </si>
+  <si>
+    <t>aditya767</t>
+  </si>
+  <si>
+    <t>Request Kehadiran 2</t>
+  </si>
+  <si>
+    <t>test data 2</t>
   </si>
 </sst>
 </file>
@@ -133,10 +142,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,16 +459,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5388D3-9615-484C-AC05-622DCC5E2C5F}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
@@ -519,7 +527,7 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="1">
@@ -544,6 +552,44 @@
         <v>14</v>
       </c>
       <c r="L2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>900275</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" t="s">
         <v>15</v>
       </c>
     </row>
